--- a/data/lsd/extractions/251204 Fiche d'extraction d'échantillons.xlsx
+++ b/data/lsd/extractions/251204 Fiche d'extraction d'échantillons.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\02 - Extractions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itgitm-my.sharepoint.com/personal/nvanreet_itg_be/Documents/Documenten/GitHub/biobank-dashboard/data/lsd/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E75FF9-E740-454E-9F90-34E39DB72D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{55E75FF9-E740-454E-9F90-34E39DB72D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1C56E4B-7C0F-44D9-9400-9CA8618890ED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1CE68EB6-DB45-45E9-95B2-F2EDACD56A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Extractions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Extractions!$A$1:$L$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$65</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Extractions!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Extractions!$A$1:$L$65</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -355,7 +355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -655,26 +655,26 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D591" sqref="D591"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.26953125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.54296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="6.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="71.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>551</v>
       </c>
@@ -750,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>552</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>553</v>
       </c>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>554</v>
       </c>
@@ -864,7 +864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>555</v>
       </c>
@@ -902,7 +902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>556</v>
       </c>
@@ -913,7 +913,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="6">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="E7" s="1">
         <v>47</v>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>557</v>
       </c>
@@ -978,7 +978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>558</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>559</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>560</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>561</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>562</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>563</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>564</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>565</v>
       </c>
@@ -1282,74 +1282,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H60" s="6"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H61" s="6"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="258" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B258" s="7"/>
     </row>
-    <row r="259" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B259" s="7"/>
     </row>
-    <row r="260" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B260" s="7"/>
     </row>
-    <row r="261" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B261" s="7"/>
     </row>
-    <row r="262" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B262" s="7"/>
     </row>
-    <row r="263" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B263" s="7"/>
     </row>
-    <row r="264" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B264" s="7"/>
     </row>
-    <row r="265" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B265" s="7"/>
     </row>
-    <row r="266" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B266" s="7"/>
     </row>
-    <row r="267" spans="2:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B267" s="7"/>
     </row>
   </sheetData>
@@ -1360,6 +1360,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-12-08T07:45:43+00:00</Uploaded>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="10" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="510b1c6ba7ba4ca208e6cd14b8184986">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f466b4bbe338f1aa6828ca288e52ead" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
@@ -1537,34 +1557,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-12-08T07:45:43+00:00</Uploaded>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69732D86-9D36-4468-B9CD-C00EE662E078}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AD27CF-CF9A-4A5E-9BFA-7BB53C08B35A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C590D398-7F3D-4927-B606-EB44DAEEFF9F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C590D398-7F3D-4927-B606-EB44DAEEFF9F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AD27CF-CF9A-4A5E-9BFA-7BB53C08B35A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69732D86-9D36-4468-B9CD-C00EE662E078}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>